--- a/assets/data/20250411_trend_summary.xlsx
+++ b/assets/data/20250411_trend_summary.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Summary Table" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sources" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Executive Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cooccurrence" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Associations" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,4 +478,140 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Source Name </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> URL </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Publication Date </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>-------------</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 中国政府网 </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Executive Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Five Most Impactful News Summaries:
+1. 国务院发布《关于加快培育发展新质生产力的指导意见》：4月7日，国务院正式发布新质生产力发展指导意见，设定了2025年、2027年和2030年三个阶段性目标，明确了12个重点发展领域，包括集成电路、人工智能、量子技术等前沿科技，这标志着新质生产力已上升为国家级发展战略，将引领中国未来科技创新与产业发展方向。
+2. 中共中央、国务院印发《关于推进科技创新高质量发展的若干政策措施》：4月8日发布的这一文件提出33项具体政策举措，覆盖科研体系改革、财政支持、成果转化等多方面。特别是推广"揭榜挂帅"机制，改革科研人员评价体系，设立3000亿元创新引导基金，将对中国科技创新体系产生全面深远影响。
+3. 科技部联合七部门发布"AI+"行动计划：4月6日发布的该计划设立1000亿元专项资金，支持大型模型开发与场景应用，计划在全国建设50个"AI+"示范区，推动AI在十大领域规模化应用，同时建立AI安全评估和伦理审查机制，对推动人工智能与实体经济深度融合具有战略意义。
+4. 国务院发布《生物技术和生物产业创新发展战略》：4月11日发布的这一国家级战略明确将生物技术定位为国家战略性前瞻性领域，确定了六大重点发展方向，计划到2035年建成具全球影响力的生物产业创新高地，并强调生物安全与伦理管理，将全面引领中国生物科技产业未来发展。
+5. 中国量子通信骨干网络"京沪干线"升级完成：4月10日宣布的量子通信网络升级工程将覆盖范围扩展至全国31个省级行政区，实现量子密钥3000公里稳定传输，国家发改委计划"十五五"期间投入200亿元推动产业化应用，这标志着中国在量子通信领域保持全球领先地位，为构建全球量子保密通信网络奠定基础。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>